--- a/pub-jaen/jaen/data_gen/observables_genj.xlsx
+++ b/pub-jaen/jaen/data_gen/observables_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="212">
   <si>
-    <t>Generated from data\observables.jaen, Tue Feb 21 15:20:02 2017</t>
+    <t>Generated from data\observables.jaen, Wed Feb 22 08:23:30 2017</t>
   </si>
   <si>
     <t>module</t>

--- a/pub-jaen/jaen/data_gen/observables_genj.xlsx
+++ b/pub-jaen/jaen/data_gen/observables_genj.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="212">
   <si>
-    <t>Generated from data\observables.jaen, Wed Feb 22 08:23:30 2017</t>
+    <t>Generated from data\observables.jaen, Wed Feb 22 16:45:25 2017</t>
   </si>
   <si>
     <t>module</t>
